--- a/Kitap 1 (1).xlsx
+++ b/Kitap 1 (1).xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27525"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27624"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C45D950-4CA6-449C-A7DB-45FF501DF0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E63323C-9CD9-439C-80E1-DCD39CFA2F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
   <si>
     <t>DATE</t>
   </si>
@@ -45,106 +45,154 @@
     <t>error(GeV)</t>
   </si>
   <si>
-    <t>4.30.2012</t>
+    <t>1-15-2014</t>
   </si>
   <si>
     <t>Tevatron</t>
   </si>
   <si>
-    <t>1.30.2011</t>
-  </si>
-  <si>
     <t>CMS</t>
   </si>
   <si>
-    <t>1.30.2012</t>
-  </si>
-  <si>
-    <t>2.15.2012</t>
-  </si>
-  <si>
-    <t>1.30.2013</t>
-  </si>
-  <si>
-    <t>2.15.2013</t>
-  </si>
-  <si>
-    <t>1.30.2014</t>
-  </si>
-  <si>
-    <t>1.30.2015</t>
-  </si>
-  <si>
-    <t>2.15.2015</t>
-  </si>
-  <si>
-    <t>3.30.2015</t>
-  </si>
-  <si>
-    <t>4.30.2015</t>
-  </si>
-  <si>
-    <t>1.30.2016</t>
-  </si>
-  <si>
-    <t>2.15.2016</t>
-  </si>
-  <si>
-    <t>3.30.2016</t>
-  </si>
-  <si>
-    <t>1.30.2017</t>
-  </si>
-  <si>
-    <t>2.15.2017</t>
-  </si>
-  <si>
-    <t>3.30.2017</t>
-  </si>
-  <si>
-    <t>1.30.2018</t>
-  </si>
-  <si>
-    <t>2.15.2018</t>
-  </si>
-  <si>
-    <t>3.30.2018</t>
-  </si>
-  <si>
-    <t>4.30.2018</t>
-  </si>
-  <si>
-    <t>5.30.2018</t>
-  </si>
-  <si>
-    <t>6.30.2018</t>
-  </si>
-  <si>
-    <t>1.30.2019</t>
-  </si>
-  <si>
-    <t>2.15.2021</t>
-  </si>
-  <si>
-    <t>1.30.2022</t>
-  </si>
-  <si>
-    <t>2.15.2022</t>
-  </si>
-  <si>
-    <t>3.30.2022</t>
-  </si>
-  <si>
-    <t>1.30.2023</t>
-  </si>
-  <si>
-    <t>1.15.2024</t>
+    <t>1-15-2024</t>
+  </si>
+  <si>
+    <t>1-30-2002</t>
+  </si>
+  <si>
+    <t>1-30-2011</t>
+  </si>
+  <si>
+    <t>1-30-2012</t>
+  </si>
+  <si>
+    <t>1-30-2013</t>
+  </si>
+  <si>
+    <t>1-30-2014</t>
+  </si>
+  <si>
+    <t>1-30-2015</t>
+  </si>
+  <si>
+    <t>1-30-2016</t>
+  </si>
+  <si>
+    <t>1-30-2017</t>
+  </si>
+  <si>
+    <t>1-30-2018</t>
+  </si>
+  <si>
+    <t>1-30-2019</t>
+  </si>
+  <si>
+    <t>1-30-2022</t>
+  </si>
+  <si>
+    <t>1-30-2023</t>
+  </si>
+  <si>
+    <t>11-30-2016</t>
+  </si>
+  <si>
+    <t>2-15-2012</t>
+  </si>
+  <si>
+    <t>2-15-2013</t>
+  </si>
+  <si>
+    <t>2-15-2014</t>
+  </si>
+  <si>
+    <t>2-15-2015</t>
+  </si>
+  <si>
+    <t>2-15-2016</t>
+  </si>
+  <si>
+    <t>2-15-2017</t>
+  </si>
+  <si>
+    <t>2-15-2018</t>
+  </si>
+  <si>
+    <t>2-15-2021</t>
+  </si>
+  <si>
+    <t>2-15-2022</t>
+  </si>
+  <si>
+    <t>2-18-2016</t>
+  </si>
+  <si>
+    <t>2-30-2002</t>
+  </si>
+  <si>
+    <t>2-30-2003</t>
+  </si>
+  <si>
+    <t>2-30-2024</t>
   </si>
   <si>
     <t>COMBINED</t>
   </si>
   <si>
-    <t>2.15.2024</t>
+    <t>3-25-2014</t>
+  </si>
+  <si>
+    <t>3-30-2014</t>
+  </si>
+  <si>
+    <t>3-30-2015</t>
+  </si>
+  <si>
+    <t>3-30-2016</t>
+  </si>
+  <si>
+    <t>ATLAS</t>
+  </si>
+  <si>
+    <t>3-30-2017</t>
+  </si>
+  <si>
+    <t>3-30-2018</t>
+  </si>
+  <si>
+    <t>3-30-2022</t>
+  </si>
+  <si>
+    <t>30-2-2004</t>
+  </si>
+  <si>
+    <t>4-30-2012</t>
+  </si>
+  <si>
+    <t>4-30-2015</t>
+  </si>
+  <si>
+    <t>4-30-2018</t>
+  </si>
+  <si>
+    <t>4-30-2022</t>
+  </si>
+  <si>
+    <t>5-30-2018</t>
+  </si>
+  <si>
+    <t>6-15-2002</t>
+  </si>
+  <si>
+    <t>6-15-2017</t>
+  </si>
+  <si>
+    <t>6-30-2018</t>
+  </si>
+  <si>
+    <t>9-30-2013</t>
+  </si>
+  <si>
+    <t>9-30-2017</t>
   </si>
 </sst>
 </file>
@@ -152,7 +200,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -187,7 +235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,15 +570,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
@@ -566,10 +614,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>175.5</v>
@@ -580,10 +628,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>173.49</v>
@@ -594,10 +642,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>172.5</v>
@@ -608,10 +656,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>173.9</v>
@@ -622,10 +670,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>173.54</v>
@@ -636,10 +684,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>177</v>
@@ -650,10 +698,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>172.35</v>
@@ -664,10 +712,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>172.32</v>
@@ -678,10 +726,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>172.82</v>
@@ -692,10 +740,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>172.44</v>
@@ -706,10 +754,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>174.3</v>
@@ -720,10 +768,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>173.68</v>
@@ -734,10 +782,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>173.5</v>
@@ -748,10 +796,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16">
         <v>170.6</v>
@@ -762,10 +810,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>172.95</v>
@@ -776,10 +824,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>172.22</v>
@@ -790,10 +838,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>172.25</v>
@@ -804,10 +852,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>172.34</v>
@@ -818,10 +866,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>172.26</v>
@@ -832,10 +880,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>172.33</v>
@@ -846,10 +894,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>173.7</v>
@@ -860,10 +908,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24">
         <v>170.5</v>
@@ -874,10 +922,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>172.6</v>
@@ -888,10 +936,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>172.13</v>
@@ -902,10 +950,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27">
         <v>173.4</v>
@@ -916,10 +964,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <v>171.77</v>
@@ -930,10 +978,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29">
         <v>173.06</v>
@@ -944,10 +992,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30">
         <v>171.77</v>
@@ -958,10 +1006,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31">
         <v>172.52</v>
@@ -972,10 +1020,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C32">
         <v>172.52</v>
@@ -984,7 +1032,253 @@
         <v>0.44</v>
       </c>
     </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>179</v>
+      </c>
+      <c r="D33" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>178</v>
+      </c>
+      <c r="D34" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35">
+        <v>174.48</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36">
+        <v>172.31</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37">
+        <v>173.09</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38">
+        <v>174.9</v>
+      </c>
+      <c r="D38" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39">
+        <v>173.34</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>172.8</v>
+      </c>
+      <c r="D40" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>169.1</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>174.98</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>172.85</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>173.93</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>175.07</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>173.32</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>173.98</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>174.95</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>174.3</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.84</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D49">
+    <sortCondition ref="A2:A49"/>
+  </sortState>
+  <dataValidations count="1">
+    <dataValidation type="date" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{00085B2B-D6EF-49E5-B3AA-D37BD7FE136E}">
+      <formula1>$A$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>